--- a/outputs/trading_compliance_results_2025-11-21.xlsx
+++ b/outputs/trading_compliance_results_2025-11-21.xlsx
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>0</v>
@@ -566,10 +566,10 @@
       </c>
       <c r="B10" s="5" t="inlineStr"/>
       <c r="C10" s="5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,7 +960,7 @@
       </c>
       <c r="B2" s="6" t="inlineStr">
         <is>
-          <t>diversification_IRS_check</t>
+          <t>commodities_check</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
@@ -993,26 +993,290 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
           <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>

--- a/outputs/trading_compliance_results_2025-11-21.xlsx
+++ b/outputs/trading_compliance_results_2025-11-21.xlsx
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9" s="7" t="n">
         <v>0</v>
@@ -566,10 +566,10 @@
       </c>
       <c r="B10" s="5" t="inlineStr"/>
       <c r="C10" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0</v>
@@ -953,33 +953,33 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>commodities_check</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1052,66 +1052,66 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>gics_compliance</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1151,99 +1151,99 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>real_estate_check</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>NO</t>
         </is>

--- a/outputs/trading_compliance_results_2025-11-21.xlsx
+++ b/outputs/trading_compliance_results_2025-11-21.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -540,38 +540,164 @@
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
           <t>RDVI</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="C13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Totals</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr"/>
-      <c r="C10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="5" t="n">
+      <c r="B16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -586,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -711,7 +837,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -726,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>3777897.651000023</v>
+        <v>2998695.3</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>0</v>
@@ -735,88 +861,193 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>2449752492.102</v>
+        <v>19969380.059</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>2445974594.451</v>
+        <v>19969380.059</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>-3777897.651000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Treasury</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="n">
+        <v>3377802036.354166</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>3377802036.354166</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>3377802036.354166</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>3696850</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>-3696850</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>-3696850</v>
+      <c r="C6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>15750</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>-15750</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>-15750</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>4697</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>-4697</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>-4697</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Trade Activity Details (Top 5 by Market Value)</t>
-        </is>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>262933850.714</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>3501188341.52</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>3475474371.456</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>-25713970.06399965</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Fund</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Asset Class</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>Market Value</t>
-        </is>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>25783353</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>-25783353</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>-25783353</v>
       </c>
     </row>
     <row r="10">
@@ -830,61 +1061,988 @@
           <t>Equity</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>3777897.651000023</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>2449752492.102</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>2445974594.451</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>-3777897.651000023</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>3696850</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>-3696850</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>-3696850</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>985920.0000000001</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>-985920.0000000001</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>-985920.0000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>234940</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>-234940</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>-234940</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Trade Activity Details (Top 5 by Market Value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Asset Class</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Market Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" s="9" t="n">
+        <v>31400</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>2998695.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" s="9" t="n">
+        <v>5500</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>538532.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" s="9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>510387.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" s="9" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>496672.0000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" s="9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>495076.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" s="9" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>490577.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Treasury</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" s="9" t="n">
+        <v>33989000</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3377802036.354166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Treasury</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>912797PD3</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>33989000</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3377802036.354166</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Net Sell</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" s="9" t="n">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>XND US 11/28/25 C244</t>
+        </is>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>XSP US 11/28/25 C661</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" s="9" t="n">
+        <v>2344178</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>241802670.272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" s="9" t="n">
+        <v>265928</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>21131180.442</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" s="9" t="n">
+        <v>75857</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>11446062.73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" s="9" t="n">
+        <v>92276</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>10819361</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" s="9" t="n">
+        <v>48782</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>10211048.24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" s="9" t="n">
+        <v>18175</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>9989707</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" s="9" t="n">
+        <v>40976</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>9716556.927999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" s="9" t="n">
+        <v>5791</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>591608.5599999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" s="9" t="n">
+        <v>4511</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>579031.9600000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" s="9" t="n">
+        <v>6967</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>577982.3199999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" s="9" t="n">
+        <v>34807</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>571356.905</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" s="9" t="n">
+        <v>5388</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>570535.3199999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" s="9" t="n">
+        <v>85048</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>25783353</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CAH US 12/19/25 C210</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>662</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3581420</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ALB US 12/19/25 C115</t>
+        </is>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>1158</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3172920</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CHRW US 12/19/25 C150</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>831</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2177220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EXPD US 12/19/25 C145</t>
+        </is>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>891</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2102760</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NUE US 12/19/25 C150</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="n">
+        <v>773</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1739250</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" s="9" t="n">
         <v>24000</v>
       </c>
-      <c r="F10" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="F54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Net Sell</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" s="9" t="n">
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" s="9" t="n">
         <v>535</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F56" s="9" t="n">
         <v>3696850</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>SPXW US 11/28/25 C6610</t>
         </is>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E57" s="9" t="n">
         <v>535</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F57" s="9" t="n">
         <v>3696850</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" s="9" t="n">
+        <v>312</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>985920.0000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>RUTW US 11/28/25 C2375</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="n">
+        <v>312</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>985920.0000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>234940</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SPXW US 11/28/25 C6610</t>
+        </is>
+      </c>
+      <c r="E63" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>234940</v>
       </c>
     </row>
   </sheetData>
@@ -898,7 +2056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,7 +2113,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -988,7 +2146,7 @@
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
@@ -1019,66 +2177,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>diversification_IRS_check</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>gics_compliance</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1087,12 +2245,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1120,12 +2278,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1153,12 +2311,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1186,12 +2344,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1219,64 +2377,2011 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>RDVI</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>RDVI</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>twelve_d3_sec_biz</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E52" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F52" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>NO</t>
         </is>

--- a/outputs/trading_compliance_results_2025-11-21.xlsx
+++ b/outputs/trading_compliance_results_2025-11-21.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +540,7 @@
     <row r="9">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -580,19 +580,124 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
         <is>
           <t>Totals</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr"/>
-      <c r="C11" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="B16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -607,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -732,7 +837,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -747,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>1464870.860000001</v>
+        <v>2998695.3</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>0</v>
@@ -756,24 +861,24 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>20525641.46</v>
+        <v>19969380.059</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>20531520.84</v>
+        <v>19969380.059</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>5879.380000002682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Treasury</t>
         </is>
       </c>
       <c r="C5" s="9" t="n">
@@ -783,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>65189</v>
+        <v>3377802036.354166</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>0</v>
@@ -792,252 +897,364 @@
         <v>0</v>
       </c>
       <c r="H5" s="9" t="n">
-        <v>0</v>
+        <v>3377802036.354166</v>
       </c>
       <c r="I5" s="9" t="n">
-        <v>-65189</v>
+        <v>3377802036.354166</v>
       </c>
       <c r="J5" s="9" t="n">
-        <v>-65189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>15750</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>-15750</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>-15750</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>4697</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>-4697</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>-4697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Equity</t>
         </is>
       </c>
-      <c r="C6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>29311.68</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>48793675.82</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>48822987.49999999</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>29311.67999999225</v>
+      <c r="C8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>262933850.714</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>3501188341.52</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>3475474371.456</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>-25713970.06399965</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Trade Activity Details (Top 5 by Market Value)</t>
-        </is>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>25783353</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>-25783353</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>-25783353</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Fund</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>Asset Class</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Market Value</t>
-        </is>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>3777897.651000023</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>2449752492.102</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>2445974594.451</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>-3777897.651000023</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>RDVI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>3696850</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>-3696850</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>-3696850</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="n">
+        <v>985920.0000000001</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9" t="n">
+        <v>-985920.0000000001</v>
+      </c>
+      <c r="J12" s="9" t="n">
+        <v>-985920.0000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>234940</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
+        <v>-234940</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>-234940</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Trade Activity Details (Top 5 by Market Value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Asset Class</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>Market Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Equity</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Net Buy</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" s="9" t="n">
-        <v>8609</v>
-      </c>
-      <c r="F11" s="9" t="n">
-        <v>1453777.620000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Net Sell</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>11093.24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" s="9" t="n">
-        <v>985</v>
-      </c>
-      <c r="F13" s="9" t="n">
-        <v>268511</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" s="9" t="n">
-        <v>394</v>
-      </c>
-      <c r="F14" s="9" t="n">
-        <v>135536</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" s="9" t="n">
-        <v>403</v>
-      </c>
-      <c r="F15" s="9" t="n">
-        <v>121484.35</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" s="9" t="n">
-        <v>303</v>
-      </c>
-      <c r="F16" s="9" t="n">
-        <v>91348.44</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" s="9" t="n">
-        <v>202</v>
-      </c>
-      <c r="F17" s="9" t="n">
-        <v>60553.53999999999</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" s="9" t="n">
-        <v>24</v>
+        <v>31400</v>
       </c>
       <c r="F18" s="9" t="n">
-        <v>4363.440000000001</v>
+        <v>2998695.3</v>
       </c>
     </row>
     <row r="19">
@@ -1049,15 +1266,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" s="9" t="n">
-        <v>8</v>
+        <v>5500</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>3805.52</v>
+        <v>538532.5</v>
       </c>
     </row>
     <row r="20">
@@ -1069,15 +1286,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" s="9" t="n">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>673.41</v>
+        <v>510387.5</v>
       </c>
     </row>
     <row r="21">
@@ -1089,15 +1306,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" s="9" t="n">
-        <v>3</v>
+        <v>6800</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>617.58</v>
+        <v>496672.0000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1109,159 +1326,739 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" s="9" t="n">
-        <v>5</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="9" t="n">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Net Sell</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" s="9" t="n">
-        <v>240</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>0</v>
+        <v>495076.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" s="9" t="n">
+        <v>11900</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>490577.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Treasury</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" s="9" t="n">
+        <v>33989000</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3377802036.354166</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>R21126</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Equity</t>
+          <t>Treasury</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Net Buy</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" s="9" t="n">
-        <v>186</v>
+        <v>33989000</v>
       </c>
       <c r="F26" s="9" t="n">
-        <v>29311.68</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="9" t="n">
-        <v>1009.84</v>
+        <v>3377802036.354166</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FDND</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Equity</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Net Sell</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" s="9" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F28" s="9" t="n">
-        <v>904.84</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Equity</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>XND US 11/28/25 C244</t>
+        </is>
+      </c>
       <c r="E29" s="9" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F29" s="9" t="n">
-        <v>904.3499999999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9" t="n">
-        <v>873.95</v>
+        <v>15750</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Equity</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Net Sell</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" s="9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F31" s="9" t="n">
-        <v>867.9</v>
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>XSP US 11/28/25 C661</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" s="9" t="n">
+        <v>2344178</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>241802670.272</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" s="9" t="n">
+        <v>265928</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>21131180.442</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" s="9" t="n">
+        <v>75857</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>11446062.73</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" s="9" t="n">
+        <v>92276</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>10819361</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" s="9" t="n">
+        <v>48782</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>10211048.24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" s="9" t="n">
+        <v>18175</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>9989707</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" s="9" t="n">
+        <v>40976</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>9716556.927999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ED</t>
+        </is>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>5791</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>591608.5599999999</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>4511</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>579031.9600000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>6967</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>577982.3199999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>KVUE</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>34807</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>571356.905</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>5388</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>570535.3199999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" s="9" t="n">
+        <v>85048</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>25783353</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CAH US 12/19/25 C210</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>662</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3581420</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>ALB US 12/19/25 C115</t>
+        </is>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>1158</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3172920</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CHRW US 12/19/25 C150</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>831</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2177220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EXPD US 12/19/25 C145</t>
+        </is>
+      </c>
+      <c r="E51" s="9" t="n">
+        <v>891</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2102760</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NUE US 12/19/25 C150</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="n">
+        <v>773</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1739250</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" s="9" t="n">
+        <v>24000</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" s="9" t="n">
+        <v>535</v>
+      </c>
+      <c r="F56" s="9" t="n">
+        <v>3696850</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SPXW US 11/28/25 C6610</t>
+        </is>
+      </c>
+      <c r="E57" s="9" t="n">
+        <v>535</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>3696850</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" s="9" t="n">
+        <v>312</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>985920.0000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>RUTW US 11/28/25 C2375</t>
+        </is>
+      </c>
+      <c r="E60" s="9" t="n">
+        <v>312</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>985920.0000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>234940</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SPXW US 11/28/25 C6610</t>
+        </is>
+      </c>
+      <c r="E63" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>234940</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +2072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,7 +2129,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1363,33 +2160,33 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HE3B2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>diversification_40act_check</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1398,7 +2195,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1431,12 +2228,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>gics_compliance</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1462,33 +2259,33 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>HE3B2</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>max_15pct_illiquid_sai</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DOGG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -1497,12 +2294,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1530,12 +2327,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1563,12 +2360,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1596,12 +2393,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>DOGG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d3_sec_biz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1629,12 +2426,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HE3B2</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>twelve_d3_sec_biz</t>
+          <t>commodities_check</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1662,12 +2459,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>commodities_check</t>
+          <t>diversification_40act_check</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1695,12 +2492,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>diversification_40act_check</t>
+          <t>diversification_IRS_check</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1728,12 +2525,12 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
         <is>
-          <t>diversification_IRS_check</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C14" s="6" t="inlineStr">
@@ -1761,12 +2558,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>gics_compliance</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1794,12 +2591,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1827,12 +2624,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1860,12 +2657,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1893,12 +2690,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1926,12 +2723,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FDND</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d3_sec_biz</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1959,31 +2756,1648 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R21126</t>
+          <t>FGSI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C22" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FGSI</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>twelve_d3_sec_biz</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>KNG</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RDVI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D52" s="6" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SDVD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TDVI</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>NO</t>
         </is>

--- a/outputs/trading_compliance_results_2025-11-21.xlsx
+++ b/outputs/trading_compliance_results_2025-11-21.xlsx
@@ -869,6 +869,27 @@
       <c r="J4" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K4" s="10" t="n">
+        <v>0.1501646666616732</v>
+      </c>
+      <c r="L4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>2998695.3</v>
+      </c>
+      <c r="N4" s="9" t="n">
+        <v>31400</v>
+      </c>
+      <c r="O4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9" t="n">
+        <v>2998695.3</v>
+      </c>
+      <c r="Q4" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -905,6 +926,27 @@
       <c r="J5" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>3377802036.354166</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>33989000</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>3377802036.354166</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -941,6 +983,27 @@
       <c r="J6" s="9" t="n">
         <v>-15750</v>
       </c>
+      <c r="K6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>-15750</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>63</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>15750</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -977,6 +1040,27 @@
       <c r="J7" s="9" t="n">
         <v>-4697</v>
       </c>
+      <c r="K7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>-4697</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>4697</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1013,6 +1097,27 @@
       <c r="J8" s="9" t="n">
         <v>-25713970.06399965</v>
       </c>
+      <c r="K8" s="10" t="n">
+        <v>0.07509845945615433</v>
+      </c>
+      <c r="L8" s="10" t="n">
+        <v>0.992655645010849</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>220671489.83</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>2344178</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>265928</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>241802670.272</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>21131180.442</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1049,6 +1154,27 @@
       <c r="J9" s="9" t="n">
         <v>-25783353</v>
       </c>
+      <c r="K9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9" t="n">
+        <v>-25783353</v>
+      </c>
+      <c r="N9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9" t="n">
+        <v>85048</v>
+      </c>
+      <c r="P9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9" t="n">
+        <v>25783353</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1085,6 +1211,27 @@
       <c r="J10" s="9" t="n">
         <v>-3777897.651000023</v>
       </c>
+      <c r="K10" s="10" t="n">
+        <v>0.001542154835306817</v>
+      </c>
+      <c r="L10" s="10" t="n">
+        <v>0.9984578451646932</v>
+      </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="9" t="n">
+        <v>24000</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1121,6 +1268,27 @@
       <c r="J11" s="9" t="n">
         <v>-3696850</v>
       </c>
+      <c r="K11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9" t="n">
+        <v>-3696850</v>
+      </c>
+      <c r="N11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9" t="n">
+        <v>535</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9" t="n">
+        <v>3696850</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1157,6 +1325,27 @@
       <c r="J12" s="9" t="n">
         <v>-985920.0000000001</v>
       </c>
+      <c r="K12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9" t="n">
+        <v>-985920.0000000001</v>
+      </c>
+      <c r="N12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9" t="n">
+        <v>312</v>
+      </c>
+      <c r="P12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9" t="n">
+        <v>985920.0000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1192,6 +1381,27 @@
       </c>
       <c r="J13" s="9" t="n">
         <v>-234940</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
+        <v>-234940</v>
+      </c>
+      <c r="N13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9" t="n">
+        <v>34</v>
+      </c>
+      <c r="P13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9" t="n">
+        <v>234940</v>
       </c>
     </row>
     <row r="16">

--- a/outputs/trading_compliance_results_2025-11-21.xlsx
+++ b/outputs/trading_compliance_results_2025-11-21.xlsx
@@ -82,10 +82,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -538,166 +538,292 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>DOGG</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HE3B1</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="n">
+      <c r="C9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>FDND</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HE3B2</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="n">
+      <c r="C10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>FGSI</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HE3B3</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="n">
+      <c r="C11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KNG</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
+          <t>P20127</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="n">
+      <c r="C12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P21026</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="n">
+      <c r="C13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>SDVD</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P2726</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7" t="n">
+      <c r="C14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TDVI</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
+          <t>P30128</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>UNCHANGED</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7" t="n">
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>UNCHANGED</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
         <is>
           <t>Totals</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr"/>
-      <c r="C16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="n">
+      <c r="B22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -712,7 +838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -837,7 +963,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -852,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>2998695.3</v>
+        <v>2616478.000000001</v>
       </c>
       <c r="F4" s="10" t="n">
         <v>0</v>
@@ -861,45 +987,45 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="n">
-        <v>19969380.059</v>
+        <v>37687896.05</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>19969380.059</v>
+        <v>37688225.19000001</v>
       </c>
       <c r="J4" s="9" t="n">
-        <v>0</v>
+        <v>329.1400000080466</v>
       </c>
       <c r="K4" s="10" t="n">
-        <v>0.1501646666616732</v>
+        <v>0.06942488900226101</v>
       </c>
       <c r="L4" s="10" t="n">
-        <v>1</v>
+        <v>1.000008733307892</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>2998695.3</v>
+        <v>2586363.140000001</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>31400</v>
+        <v>14878</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>2998695.3</v>
+        <v>2601420.570000001</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>15057.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Treasury</t>
+          <t>Options</t>
         </is>
       </c>
       <c r="C5" s="9" t="n">
@@ -909,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>3377802036.354166</v>
+        <v>119731</v>
       </c>
       <c r="F5" s="10" t="n">
         <v>0</v>
@@ -918,31 +1044,31 @@
         <v>0</v>
       </c>
       <c r="H5" s="9" t="n">
-        <v>3377802036.354166</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9" t="n">
-        <v>3377802036.354166</v>
+        <v>-119731</v>
       </c>
       <c r="J5" s="9" t="n">
-        <v>0</v>
+        <v>-119731</v>
       </c>
       <c r="K5" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="9" t="n">
-        <v>3377802036.354166</v>
+        <v>0</v>
       </c>
       <c r="N5" s="9" t="n">
-        <v>33989000</v>
+        <v>0</v>
       </c>
       <c r="O5" s="9" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="P5" s="9" t="n">
-        <v>3377802036.354166</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="9" t="n">
         <v>0</v>
@@ -951,12 +1077,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C6" s="9" t="n">
@@ -966,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>15750</v>
+        <v>1464870.860000001</v>
       </c>
       <c r="F6" s="10" t="n">
         <v>0</v>
@@ -975,40 +1101,40 @@
         <v>0</v>
       </c>
       <c r="H6" s="9" t="n">
-        <v>0</v>
+        <v>20525641.46</v>
       </c>
       <c r="I6" s="9" t="n">
-        <v>-15750</v>
+        <v>20531520.84</v>
       </c>
       <c r="J6" s="9" t="n">
-        <v>-15750</v>
+        <v>5879.380000002682</v>
       </c>
       <c r="K6" s="10" t="n">
-        <v>0</v>
+        <v>0.07136784800878035</v>
       </c>
       <c r="L6" s="10" t="n">
-        <v>0</v>
+        <v>1.00028644074347</v>
       </c>
       <c r="M6" s="9" t="n">
-        <v>-15750</v>
+        <v>1442684.380000001</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>0</v>
+        <v>8609</v>
       </c>
       <c r="O6" s="9" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="P6" s="9" t="n">
-        <v>0</v>
+        <v>1453777.620000001</v>
       </c>
       <c r="Q6" s="9" t="n">
-        <v>15750</v>
+        <v>11093.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1023,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>4697</v>
+        <v>65189</v>
       </c>
       <c r="F7" s="10" t="n">
         <v>0</v>
@@ -1035,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="9" t="n">
-        <v>-4697</v>
+        <v>-65189</v>
       </c>
       <c r="J7" s="9" t="n">
-        <v>-4697</v>
+        <v>-65189</v>
       </c>
       <c r="K7" s="10" t="n">
         <v>0</v>
@@ -1047,25 +1173,25 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="n">
-        <v>-4697</v>
+        <v>0</v>
       </c>
       <c r="N7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="9" t="n">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="P7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="9" t="n">
-        <v>4697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1080,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>262933850.714</v>
+        <v>925632.1100000001</v>
       </c>
       <c r="F8" s="10" t="n">
         <v>0</v>
@@ -1089,40 +1215,40 @@
         <v>0</v>
       </c>
       <c r="H8" s="9" t="n">
-        <v>3501188341.52</v>
+        <v>14473551.62</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>3475474371.456</v>
+        <v>14469529.09</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>-25713970.06399965</v>
+        <v>-4022.530000001192</v>
       </c>
       <c r="K8" s="10" t="n">
-        <v>0.07509845945615433</v>
+        <v>0.06395334982748346</v>
       </c>
       <c r="L8" s="10" t="n">
-        <v>0.992655645010849</v>
+        <v>0.9997220771994593</v>
       </c>
       <c r="M8" s="9" t="n">
-        <v>220671489.83</v>
+        <v>920505.4700000002</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>2344178</v>
+        <v>5591</v>
       </c>
       <c r="O8" s="9" t="n">
-        <v>265928</v>
+        <v>17</v>
       </c>
       <c r="P8" s="9" t="n">
-        <v>241802670.272</v>
+        <v>923068.7900000002</v>
       </c>
       <c r="Q8" s="9" t="n">
-        <v>21131180.442</v>
+        <v>2563.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1137,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="9" t="n">
-        <v>25783353</v>
+        <v>46997</v>
       </c>
       <c r="F9" s="10" t="n">
         <v>0</v>
@@ -1149,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="9" t="n">
-        <v>-25783353</v>
+        <v>-46997</v>
       </c>
       <c r="J9" s="9" t="n">
-        <v>-25783353</v>
+        <v>-46997</v>
       </c>
       <c r="K9" s="10" t="n">
         <v>0</v>
@@ -1161,25 +1287,25 @@
         <v>0</v>
       </c>
       <c r="M9" s="9" t="n">
-        <v>-25783353</v>
+        <v>0</v>
       </c>
       <c r="N9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="9" t="n">
-        <v>85048</v>
+        <v>160</v>
       </c>
       <c r="P9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="9" t="n">
-        <v>25783353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1194,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="9" t="n">
-        <v>3777897.651000023</v>
+        <v>7906143.539999999</v>
       </c>
       <c r="F10" s="10" t="n">
         <v>0</v>
@@ -1203,40 +1329,40 @@
         <v>0</v>
       </c>
       <c r="H10" s="9" t="n">
-        <v>2449752492.102</v>
+        <v>90906151.63</v>
       </c>
       <c r="I10" s="9" t="n">
-        <v>2445974594.451</v>
+        <v>90885267.32999998</v>
       </c>
       <c r="J10" s="9" t="n">
-        <v>-3777897.651000023</v>
+        <v>-20884.30000001192</v>
       </c>
       <c r="K10" s="10" t="n">
-        <v>0.001542154835306817</v>
+        <v>0.08697039087276562</v>
       </c>
       <c r="L10" s="10" t="n">
-        <v>0.9984578451646932</v>
+        <v>0.9997702652722006</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>0</v>
+        <v>7802296.699999999</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>0</v>
+        <v>44269</v>
       </c>
       <c r="O10" s="9" t="n">
-        <v>24000</v>
+        <v>248</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>0</v>
+        <v>7854220.119999999</v>
       </c>
       <c r="Q10" s="9" t="n">
-        <v>0</v>
+        <v>51923.42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1251,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="9" t="n">
-        <v>3696850</v>
+        <v>350827</v>
       </c>
       <c r="F11" s="10" t="n">
         <v>0</v>
@@ -1263,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="9" t="n">
-        <v>-3696850</v>
+        <v>-350827</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>-3696850</v>
+        <v>-350827</v>
       </c>
       <c r="K11" s="10" t="n">
         <v>0</v>
@@ -1275,30 +1401,30 @@
         <v>0</v>
       </c>
       <c r="M11" s="9" t="n">
-        <v>-3696850</v>
+        <v>0</v>
       </c>
       <c r="N11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="9" t="n">
-        <v>535</v>
+        <v>1254</v>
       </c>
       <c r="P11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q11" s="9" t="n">
-        <v>3696850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C12" s="9" t="n">
@@ -1308,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>985920.0000000001</v>
+        <v>1879453.28</v>
       </c>
       <c r="F12" s="10" t="n">
         <v>0</v>
@@ -1317,40 +1443,40 @@
         <v>0</v>
       </c>
       <c r="H12" s="9" t="n">
-        <v>0</v>
+        <v>21287715.67</v>
       </c>
       <c r="I12" s="9" t="n">
-        <v>-985920.0000000001</v>
+        <v>21278266.73</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>-985920.0000000001</v>
+        <v>-9448.940000001341</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>0</v>
+        <v>0.08828816154514148</v>
       </c>
       <c r="L12" s="10" t="n">
-        <v>0</v>
+        <v>0.9995561318017171</v>
       </c>
       <c r="M12" s="9" t="n">
-        <v>-985920.0000000001</v>
+        <v>1852396.06</v>
       </c>
       <c r="N12" s="9" t="n">
-        <v>0</v>
+        <v>10845</v>
       </c>
       <c r="O12" s="9" t="n">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="P12" s="9" t="n">
-        <v>0</v>
+        <v>1865924.67</v>
       </c>
       <c r="Q12" s="9" t="n">
-        <v>985920.0000000001</v>
+        <v>13528.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1365,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="9" t="n">
-        <v>234940</v>
+        <v>83240</v>
       </c>
       <c r="F13" s="10" t="n">
         <v>0</v>
@@ -1377,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="n">
-        <v>-234940</v>
+        <v>-83240</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>-234940</v>
+        <v>-83240</v>
       </c>
       <c r="K13" s="10" t="n">
         <v>0</v>
@@ -1389,64 +1515,253 @@
         <v>0</v>
       </c>
       <c r="M13" s="9" t="n">
-        <v>-234940</v>
+        <v>0</v>
       </c>
       <c r="N13" s="9" t="n">
         <v>0</v>
       </c>
       <c r="O13" s="9" t="n">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="P13" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="9" t="n">
-        <v>234940</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P2726</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>2934806.23</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <v>32389693.67</v>
+      </c>
+      <c r="I14" s="9" t="n">
+        <v>32387560.92</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>-2132.75</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>0.09060926169605235</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>0.999934153437148</v>
+      </c>
+      <c r="M14" s="9" t="n">
+        <v>2897608.75</v>
+      </c>
+      <c r="N14" s="9" t="n">
+        <v>16201</v>
+      </c>
+      <c r="O14" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="P14" s="9" t="n">
+        <v>2916207.49</v>
+      </c>
+      <c r="Q14" s="9" t="n">
+        <v>18598.74</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P2726</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>126569</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
+        <v>-126569</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>-126569</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9" t="n">
+        <v>451</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Trade Activity Details (Top 5 by Market Value)</t>
-        </is>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P30128</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>2469425.919999999</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="n">
+        <v>34709277.47</v>
+      </c>
+      <c r="I16" s="9" t="n">
+        <v>34704959.71</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>-4317.759999997914</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>0.07114599035184122</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>0.9998756021353734</v>
+      </c>
+      <c r="M16" s="9" t="n">
+        <v>2431352.24</v>
+      </c>
+      <c r="N16" s="9" t="n">
+        <v>13718</v>
+      </c>
+      <c r="O16" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="P16" s="9" t="n">
+        <v>2450389.08</v>
+      </c>
+      <c r="Q16" s="9" t="n">
+        <v>19036.84</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Fund</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Asset Class</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>Direction</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Ticker</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>Market Value</t>
-        </is>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P30128</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
+        <v>110478</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9" t="n">
+        <v>-110478</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>-110478</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9" t="n">
+        <v>393</v>
+      </c>
+      <c r="P17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>P31027</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1454,163 +1769,569 @@
           <t>Equity</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Net Buy</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" s="9" t="n">
-        <v>31400</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>2998695.3</v>
+        <v>934353.97</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>13628842</v>
+      </c>
+      <c r="I18" s="9" t="n">
+        <v>13626823.33</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>-2018.669999999925</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>0.06855710631908418</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>0.9998518825003621</v>
+      </c>
+      <c r="M18" s="9" t="n">
+        <v>918418.3300000001</v>
+      </c>
+      <c r="N18" s="9" t="n">
+        <v>5647</v>
+      </c>
+      <c r="O18" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="P18" s="9" t="n">
+        <v>926386.15</v>
+      </c>
+      <c r="Q18" s="9" t="n">
+        <v>7967.819999999999</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" s="9" t="n">
-        <v>5500</v>
-      </c>
-      <c r="F19" s="9" t="n">
-        <v>538532.5</v>
+        <v>45305</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
+        <v>-45305</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>-45305</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="P19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Equity</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" s="9" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>510387.5</v>
+        <v>5036490.429999999</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>71012328.16</v>
+      </c>
+      <c r="I20" s="9" t="n">
+        <v>70998752.15000001</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>-13576.00999999046</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>0.07092416993641064</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <v>0.9998088217869804</v>
+      </c>
+      <c r="M20" s="9" t="n">
+        <v>4954164.989999999</v>
+      </c>
+      <c r="N20" s="9" t="n">
+        <v>28224</v>
+      </c>
+      <c r="O20" s="9" t="n">
+        <v>195</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>4995327.709999999</v>
+      </c>
+      <c r="Q20" s="9" t="n">
+        <v>41162.72</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E21" s="9" t="n">
-        <v>6800</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>496672.0000000001</v>
+        <v>219641</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9" t="n">
+        <v>-219641</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>-219641</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9" t="n">
+        <v>785</v>
+      </c>
+      <c r="P21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Equity</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="C22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E22" s="9" t="n">
-        <v>1600</v>
-      </c>
-      <c r="F22" s="9" t="n">
-        <v>495076.8</v>
+        <v>29311.68</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>48793675.82</v>
+      </c>
+      <c r="I22" s="9" t="n">
+        <v>48822987.49999999</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>29311.67999999225</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>0.000600727030858074</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>1.000600727030858</v>
+      </c>
+      <c r="M22" s="9" t="n">
+        <v>29311.68</v>
+      </c>
+      <c r="N22" s="9" t="n">
+        <v>186</v>
+      </c>
+      <c r="O22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9" t="n">
+        <v>29311.68</v>
+      </c>
+      <c r="Q22" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Equity</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" s="9" t="n">
-        <v>11900</v>
-      </c>
-      <c r="F23" s="9" t="n">
-        <v>490577.5</v>
+        <v>10881633.1</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>122224010.19</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <v>122199612.01</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>-24398.18000000715</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>0.08903024113743489</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>0.999800381447458</v>
+      </c>
+      <c r="M23" s="9" t="n">
+        <v>10741486.82</v>
+      </c>
+      <c r="N23" s="9" t="n">
+        <v>60991</v>
+      </c>
+      <c r="O23" s="9" t="n">
+        <v>331</v>
+      </c>
+      <c r="P23" s="9" t="n">
+        <v>10811559.96</v>
+      </c>
+      <c r="Q23" s="9" t="n">
+        <v>70073.14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>479446</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <v>-479446</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>-479446</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>1712</v>
+      </c>
+      <c r="P24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Treasury</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Net Buy</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" s="9" t="n">
-        <v>33989000</v>
-      </c>
-      <c r="F25" s="9" t="n">
-        <v>3377802036.354166</v>
+        <v>12322257.02</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>141165718.01</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <v>141133193.15</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>-32524.86000001431</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>0.08728930220244484</v>
+      </c>
+      <c r="L25" s="10" t="n">
+        <v>0.9997695980266419</v>
+      </c>
+      <c r="M25" s="9" t="n">
+        <v>12158947.14</v>
+      </c>
+      <c r="N25" s="9" t="n">
+        <v>69221</v>
+      </c>
+      <c r="O25" s="9" t="n">
+        <v>388</v>
+      </c>
+      <c r="P25" s="9" t="n">
+        <v>12240602.08</v>
+      </c>
+      <c r="Q25" s="9" t="n">
+        <v>81654.93999999999</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Treasury</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" s="9" t="n">
-        <v>33989000</v>
-      </c>
-      <c r="F26" s="9" t="n">
-        <v>3377802036.354166</v>
+        <v>553064</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9" t="n">
+        <v>-553064</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>-553064</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9" t="n">
+        <v>1969</v>
+      </c>
+      <c r="P26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>10025835.95</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>116668763.44</v>
+      </c>
+      <c r="I27" s="9" t="n">
+        <v>116627706.97</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>-41056.46999999881</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>0.085934192275519</v>
+      </c>
+      <c r="L27" s="10" t="n">
+        <v>0.9996480937245803</v>
+      </c>
+      <c r="M27" s="9" t="n">
+        <v>9975913.529999999</v>
+      </c>
+      <c r="N27" s="9" t="n">
+        <v>53814</v>
+      </c>
+      <c r="O27" s="9" t="n">
+        <v>140</v>
+      </c>
+      <c r="P27" s="9" t="n">
+        <v>10000874.74</v>
+      </c>
+      <c r="Q27" s="9" t="n">
+        <v>24961.21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>TR2B3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1618,113 +2339,133 @@
           <t>Options</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>460993</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9" t="n">
+        <v>-460993</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>-460993</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9" t="n">
+        <v>1550</v>
+      </c>
+      <c r="P28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Trade Activity Details (Top 5 by Market Value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Fund</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Asset Class</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>Market Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HE3B1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" s="9" t="n">
+        <v>14878</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>2601420.570000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Net Sell</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" s="9" t="n">
-        <v>63</v>
-      </c>
-      <c r="F28" s="9" t="n">
-        <v>15750</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>XND US 11/28/25 C244</t>
-        </is>
-      </c>
-      <c r="E29" s="9" t="n">
-        <v>63</v>
-      </c>
-      <c r="F29" s="9" t="n">
-        <v>15750</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>FGSI</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Net Sell</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" s="9" t="n">
-        <v>4697</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>XSP US 11/28/25 C661</t>
-        </is>
-      </c>
-      <c r="E32" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F32" s="9" t="n">
-        <v>4697</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>KNG</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Net Buy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" s="9" t="n">
-        <v>2344178</v>
+        <v>81</v>
       </c>
       <c r="F34" s="9" t="n">
-        <v>241802670.272</v>
+        <v>15057.43</v>
       </c>
     </row>
     <row r="35">
@@ -1736,15 +2477,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Net Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" s="9" t="n">
-        <v>265928</v>
+        <v>1799</v>
       </c>
       <c r="F35" s="9" t="n">
-        <v>21131180.442</v>
+        <v>490407.4</v>
       </c>
     </row>
     <row r="36">
@@ -1761,10 +2502,10 @@
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" s="9" t="n">
-        <v>75857</v>
+        <v>799</v>
       </c>
       <c r="F36" s="9" t="n">
-        <v>11446062.73</v>
+        <v>274856</v>
       </c>
     </row>
     <row r="37">
@@ -1781,10 +2522,10 @@
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" s="9" t="n">
-        <v>92276</v>
+        <v>758</v>
       </c>
       <c r="F37" s="9" t="n">
-        <v>10819361</v>
+        <v>228499.1</v>
       </c>
     </row>
     <row r="38">
@@ -1801,10 +2542,10 @@
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" s="9" t="n">
-        <v>48782</v>
+        <v>566</v>
       </c>
       <c r="F38" s="9" t="n">
-        <v>10211048.24</v>
+        <v>170637.68</v>
       </c>
     </row>
     <row r="39">
@@ -1821,10 +2562,10 @@
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" s="9" t="n">
-        <v>18175</v>
+        <v>407</v>
       </c>
       <c r="F39" s="9" t="n">
-        <v>9989707</v>
+        <v>122006.39</v>
       </c>
     </row>
     <row r="40">
@@ -1836,15 +2577,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
       <c r="E40" s="9" t="n">
-        <v>40976</v>
+        <v>15</v>
       </c>
       <c r="F40" s="9" t="n">
-        <v>9716556.927999999</v>
+        <v>8922.75</v>
       </c>
     </row>
     <row r="41">
@@ -1861,14 +2606,14 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="E41" s="9" t="n">
-        <v>5791</v>
+        <v>13</v>
       </c>
       <c r="F41" s="9" t="n">
-        <v>591608.5599999999</v>
+        <v>1359.54</v>
       </c>
     </row>
     <row r="42">
@@ -1885,14 +2630,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="E42" s="9" t="n">
-        <v>4511</v>
+        <v>27</v>
       </c>
       <c r="F42" s="9" t="n">
-        <v>579031.9600000001</v>
+        <v>739.8</v>
       </c>
     </row>
     <row r="43">
@@ -1909,14 +2654,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="E43" s="9" t="n">
-        <v>6967</v>
+        <v>3</v>
       </c>
       <c r="F43" s="9" t="n">
-        <v>577982.3199999999</v>
+        <v>662.97</v>
       </c>
     </row>
     <row r="44">
@@ -1933,186 +2678,162 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="E44" s="9" t="n">
-        <v>34807</v>
+        <v>1</v>
       </c>
       <c r="F44" s="9" t="n">
-        <v>571356.905</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Equity</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>WMT</t>
-        </is>
-      </c>
-      <c r="E45" s="9" t="n">
-        <v>5388</v>
-      </c>
-      <c r="F45" s="9" t="n">
-        <v>570535.3199999999</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
+        <v>475.69</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Net Sell</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" s="9" t="n">
-        <v>85048</v>
-      </c>
-      <c r="F47" s="9" t="n">
-        <v>25783353</v>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" s="9" t="n">
+        <v>431</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>HE3B2</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>CAH US 12/19/25 C210</t>
-        </is>
-      </c>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" s="9" t="n">
-        <v>662</v>
+        <v>8609</v>
       </c>
       <c r="F48" s="9" t="n">
-        <v>3581420</v>
+        <v>1453777.620000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>ALB US 12/19/25 C115</t>
-        </is>
-      </c>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" s="9" t="n">
-        <v>1158</v>
+        <v>50</v>
       </c>
       <c r="F49" s="9" t="n">
-        <v>3172920</v>
+        <v>11093.24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>CHRW US 12/19/25 C150</t>
-        </is>
-      </c>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" s="9" t="n">
-        <v>831</v>
+        <v>985</v>
       </c>
       <c r="F50" s="9" t="n">
-        <v>2177220</v>
+        <v>268511</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>EXPD US 12/19/25 C145</t>
-        </is>
-      </c>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" s="9" t="n">
-        <v>891</v>
+        <v>394</v>
       </c>
       <c r="F51" s="9" t="n">
-        <v>2102760</v>
+        <v>135536</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>NUE US 12/19/25 C150</t>
-        </is>
-      </c>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" s="9" t="n">
-        <v>773</v>
+        <v>403</v>
       </c>
       <c r="F52" s="9" t="n">
-        <v>1739250</v>
+        <v>121484.35</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" s="9" t="n">
+        <v>303</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>91348.44</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
           <t>Equity</t>
@@ -2120,155 +2841,3119 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Net Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" s="9" t="n">
-        <v>24000</v>
+        <v>202</v>
       </c>
       <c r="F54" s="9" t="n">
-        <v>0</v>
+        <v>60553.53999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E55" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F55" s="9" t="n">
+        <v>4363.440000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Options</t>
+          <t>Equity</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Net Sell</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
       <c r="E56" s="9" t="n">
-        <v>535</v>
+        <v>8</v>
       </c>
       <c r="F56" s="9" t="n">
-        <v>3696850</v>
+        <v>3805.52</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="E57" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>673.41</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E58" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>617.58</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" s="9" t="n">
+        <v>240</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>HE3B3</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" s="9" t="n">
+        <v>5591</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>923068.7900000002</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2563.32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" s="9" t="n">
+        <v>698</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>190274.8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" s="9" t="n">
+        <v>299</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>102856</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>90435</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" s="9" t="n">
+        <v>199</v>
+      </c>
+      <c r="F68" s="9" t="n">
+        <v>59994.52</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="F69" s="9" t="n">
+        <v>32025</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>SPXW US 11/28/25 C6610</t>
-        </is>
-      </c>
-      <c r="E57" s="9" t="n">
-        <v>535</v>
-      </c>
-      <c r="F57" s="9" t="n">
-        <v>3696850</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>SDVD</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E70" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>545.4300000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>475.69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="E72" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>288.39</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="E73" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="9" t="n">
+        <v>220.99</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9" t="n">
+        <v>205.86</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Net Sell</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" s="9" t="n">
-        <v>312</v>
-      </c>
-      <c r="F59" s="9" t="n">
-        <v>985920.0000000001</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" s="9" t="n">
+        <v>160</v>
+      </c>
+      <c r="F76" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>P20127</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" s="9" t="n">
+        <v>44269</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <v>7854220.119999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" s="9" t="n">
+        <v>248</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <v>51923.42</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" s="9" t="n">
+        <v>5324</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <v>1451322.4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" s="9" t="n">
+        <v>2267</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <v>779848</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" s="9" t="n">
+        <v>2112</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <v>636662.4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" s="9" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <v>515530.8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" s="9" t="n">
+        <v>1103</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <v>330646.31</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E85" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="F85" s="9" t="n">
+        <v>22362.63</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E86" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>17600.53</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E87" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>2264.46</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="E88" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>2092.23</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E89" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="F89" s="9" t="n">
+        <v>1860.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" s="9" t="n">
+        <v>1254</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>P21026</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" s="9" t="n">
+        <v>10845</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>1865924.67</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" s="9" t="n">
+        <v>66</v>
+      </c>
+      <c r="F94" s="9" t="n">
+        <v>13528.61</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" s="9" t="n">
+        <v>1279</v>
+      </c>
+      <c r="F95" s="9" t="n">
+        <v>348655.4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" s="9" t="n">
+        <v>591</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>203304</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" s="9" t="n">
+        <v>502</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>151327.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" s="9" t="n">
+        <v>402</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>121194.96</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="F99" s="9" t="n">
+        <v>89931</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>RUTW US 11/28/25 C2375</t>
-        </is>
-      </c>
-      <c r="E60" s="9" t="n">
-        <v>312</v>
-      </c>
-      <c r="F60" s="9" t="n">
-        <v>985920.0000000001</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>TDVI</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E100" s="9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F100" s="9" t="n">
+        <v>5999.73</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E101" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F101" s="9" t="n">
+        <v>4756.9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E102" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F102" s="9" t="n">
+        <v>617.58</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="E103" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" s="9" t="n">
+        <v>597.78</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="E104" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" s="9" t="n">
+        <v>455.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
         <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Net Sell</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" s="9" t="n">
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="F106" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>P2726</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" s="9" t="n">
+        <v>16201</v>
+      </c>
+      <c r="F108" s="9" t="n">
+        <v>2916207.49</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" s="9" t="n">
+        <v>91</v>
+      </c>
+      <c r="F109" s="9" t="n">
+        <v>18598.74</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" s="9" t="n">
+        <v>1973</v>
+      </c>
+      <c r="F110" s="9" t="n">
+        <v>537839.8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" s="9" t="n">
+        <v>788</v>
+      </c>
+      <c r="F111" s="9" t="n">
+        <v>271072</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" s="9" t="n">
+        <v>805</v>
+      </c>
+      <c r="F112" s="9" t="n">
+        <v>242667.25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" s="9" t="n">
+        <v>604</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>182093.92</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" s="9" t="n">
+        <v>401</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>120207.77</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E115" s="9" t="n">
+        <v>44</v>
+      </c>
+      <c r="F115" s="9" t="n">
+        <v>7999.64</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F116" s="9" t="n">
+        <v>6659.66</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E117" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>823.4400000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E118" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F118" s="9" t="n">
+        <v>708.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>683.25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" s="9" t="n">
+        <v>451</v>
+      </c>
+      <c r="F121" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>P30128</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" s="9" t="n">
+        <v>13718</v>
+      </c>
+      <c r="F123" s="9" t="n">
+        <v>2450389.08</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" s="9" t="n">
+        <v>92</v>
+      </c>
+      <c r="F124" s="9" t="n">
+        <v>19036.84</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" s="9" t="n">
+        <v>1672</v>
+      </c>
+      <c r="F125" s="9" t="n">
+        <v>455787.2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" s="9" t="n">
+        <v>688</v>
+      </c>
+      <c r="F126" s="9" t="n">
+        <v>236672</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" s="9" t="n">
+        <v>705</v>
+      </c>
+      <c r="F127" s="9" t="n">
+        <v>212522.25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" s="9" t="n">
+        <v>504</v>
+      </c>
+      <c r="F128" s="9" t="n">
+        <v>151945.92</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" s="9" t="n">
+        <v>922</v>
+      </c>
+      <c r="F129" s="9" t="n">
+        <v>98008.59999999999</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="F130" s="9" t="n">
+        <v>8363.26</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E131" s="9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F131" s="9" t="n">
+        <v>6659.66</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" s="9" t="n">
+        <v>823.4400000000001</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E133" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F133" s="9" t="n">
+        <v>708.8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" s="9" t="n">
+        <v>683.25</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" s="9" t="n">
+        <v>393</v>
+      </c>
+      <c r="F136" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" s="9" t="n">
+        <v>5647</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>926386.15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" s="9" t="n">
+        <v>37</v>
+      </c>
+      <c r="F139" s="9" t="n">
+        <v>7967.819999999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" s="9" t="n">
+        <v>689</v>
+      </c>
+      <c r="F140" s="9" t="n">
+        <v>187821.4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" s="9" t="n">
+        <v>295</v>
+      </c>
+      <c r="F141" s="9" t="n">
+        <v>101480</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" s="9" t="n">
+        <v>302</v>
+      </c>
+      <c r="F142" s="9" t="n">
+        <v>91037.89999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" s="9" t="n">
+        <v>202</v>
+      </c>
+      <c r="F143" s="9" t="n">
+        <v>60898.96000000001</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" s="9" t="n">
+        <v>203</v>
+      </c>
+      <c r="F144" s="9" t="n">
+        <v>41773.34</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E145" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F145" s="9" t="n">
+        <v>3272.58</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F146" s="9" t="n">
+        <v>2378.45</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="E147" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" s="9" t="n">
+        <v>673.41</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F148" s="9" t="n">
+        <v>354.4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="E149" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" s="9" t="n">
+        <v>298.89</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" s="9" t="n">
+        <v>167</v>
+      </c>
+      <c r="F151" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" s="9" t="n">
+        <v>28224</v>
+      </c>
+      <c r="F153" s="9" t="n">
+        <v>4995327.709999999</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" s="9" t="n">
+        <v>195</v>
+      </c>
+      <c r="F154" s="9" t="n">
+        <v>41162.72</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" s="9" t="n">
+        <v>3341</v>
+      </c>
+      <c r="F155" s="9" t="n">
+        <v>910756.6000000001</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" s="9" t="n">
+        <v>1475</v>
+      </c>
+      <c r="F156" s="9" t="n">
+        <v>507400</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" s="9" t="n">
+        <v>1310</v>
+      </c>
+      <c r="F157" s="9" t="n">
+        <v>394899.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" s="9" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F158" s="9" t="n">
+        <v>334039.84</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" s="9" t="n">
+        <v>703</v>
+      </c>
+      <c r="F159" s="9" t="n">
+        <v>210738.31</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E160" s="9" t="n">
+        <v>95</v>
+      </c>
+      <c r="F160" s="9" t="n">
+        <v>17271.95</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E161" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F161" s="9" t="n">
+        <v>13795.01</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E162" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F162" s="9" t="n">
+        <v>1852.74</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="E163" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F163" s="9" t="n">
+        <v>1793.34</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E164" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="F164" s="9" t="n">
+        <v>1506.2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" s="9" t="n">
+        <v>785</v>
+      </c>
+      <c r="F166" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" s="9" t="n">
+        <v>186</v>
+      </c>
+      <c r="F168" s="9" t="n">
+        <v>29311.68</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" s="9" t="n">
+        <v>1009.84</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F170" s="9" t="n">
+        <v>904.84</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" s="9" t="n">
+        <v>904.3499999999999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" s="9" t="n">
+        <v>873.95</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" s="9" t="n">
+        <v>867.9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" s="9" t="n">
+        <v>60991</v>
+      </c>
+      <c r="F175" s="9" t="n">
+        <v>10811559.96</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" s="9" t="n">
+        <v>331</v>
+      </c>
+      <c r="F176" s="9" t="n">
+        <v>70073.14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" s="9" t="n">
+        <v>7400</v>
+      </c>
+      <c r="F177" s="9" t="n">
+        <v>2017240</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" s="9" t="n">
+        <v>3157</v>
+      </c>
+      <c r="F178" s="9" t="n">
+        <v>1086008</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" s="9" t="n">
+        <v>2918</v>
+      </c>
+      <c r="F179" s="9" t="n">
+        <v>879631.1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" s="9" t="n">
+        <v>2314</v>
+      </c>
+      <c r="F180" s="9" t="n">
+        <v>697624.7200000001</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" s="9" t="n">
+        <v>1504</v>
+      </c>
+      <c r="F181" s="9" t="n">
+        <v>450854.08</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E182" s="9" t="n">
+        <v>163</v>
+      </c>
+      <c r="F182" s="9" t="n">
+        <v>29635.03</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E183" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F183" s="9" t="n">
+        <v>23784.5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E184" s="9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F184" s="9" t="n">
+        <v>3087.9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="E185" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F185" s="9" t="n">
+        <v>2690.01</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E186" s="9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F186" s="9" t="n">
+        <v>2569.4</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" s="9" t="n">
+        <v>1712</v>
+      </c>
+      <c r="F188" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" s="9" t="n">
+        <v>69221</v>
+      </c>
+      <c r="F190" s="9" t="n">
+        <v>12240602.08</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" s="9" t="n">
+        <v>388</v>
+      </c>
+      <c r="F191" s="9" t="n">
+        <v>81654.93999999999</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" s="9" t="n">
+        <v>8382</v>
+      </c>
+      <c r="F192" s="9" t="n">
+        <v>2284933.2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" s="9" t="n">
+        <v>3649</v>
+      </c>
+      <c r="F193" s="9" t="n">
+        <v>1255256</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" s="9" t="n">
+        <v>3320</v>
+      </c>
+      <c r="F194" s="9" t="n">
+        <v>1000814</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" s="9" t="n">
+        <v>2717</v>
+      </c>
+      <c r="F195" s="9" t="n">
+        <v>819121.16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" s="9" t="n">
+        <v>1704</v>
+      </c>
+      <c r="F196" s="9" t="n">
+        <v>510808.08</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E197" s="9" t="n">
+        <v>191</v>
+      </c>
+      <c r="F197" s="9" t="n">
+        <v>34725.71</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E198" s="9" t="n">
+        <v>58</v>
+      </c>
+      <c r="F198" s="9" t="n">
+        <v>27590.02</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="E199" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F199" s="9" t="n">
+        <v>3705.48</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="E200" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F200" s="9" t="n">
+        <v>3287.79</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="E201" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="F62" s="9" t="n">
-        <v>234940</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr">
+      <c r="F201" s="9" t="n">
+        <v>3012.4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" t="inlineStr">
         <is>
           <t>Options</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" s="9" t="n">
+        <v>1969</v>
+      </c>
+      <c r="F203" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Net Buy</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" s="9" t="n">
+        <v>53814</v>
+      </c>
+      <c r="F205" s="9" t="n">
+        <v>10000874.74</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" s="9" t="n">
+        <v>140</v>
+      </c>
+      <c r="F206" s="9" t="n">
+        <v>24961.21</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" s="9" t="n">
+        <v>6889</v>
+      </c>
+      <c r="F207" s="9" t="n">
+        <v>1877941.4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" s="9" t="n">
+        <v>2895</v>
+      </c>
+      <c r="F208" s="9" t="n">
+        <v>995880</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" s="9" t="n">
+        <v>2795</v>
+      </c>
+      <c r="F209" s="9" t="n">
+        <v>842552.75</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" s="9" t="n">
+        <v>2296</v>
+      </c>
+      <c r="F210" s="9" t="n">
+        <v>692198.0800000001</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" s="9" t="n">
+        <v>399</v>
+      </c>
+      <c r="F211" s="9" t="n">
+        <v>424117.05</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
         <is>
           <t>Sell</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>SPXW US 11/28/25 C6610</t>
-        </is>
-      </c>
-      <c r="E63" s="9" t="n">
-        <v>34</v>
-      </c>
-      <c r="F63" s="9" t="n">
-        <v>234940</v>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="E212" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F212" s="9" t="n">
+        <v>3272.58</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="E213" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F213" s="9" t="n">
+        <v>2378.45</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="E214" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F214" s="9" t="n">
+        <v>1546.93</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="E215" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F215" s="9" t="n">
+        <v>1189.7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>BRK/B</t>
+        </is>
+      </c>
+      <c r="E216" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F216" s="9" t="n">
+        <v>1010.94</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Net Sell</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" s="9" t="n">
+        <v>1550</v>
+      </c>
+      <c r="F218" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2282,7 +5967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,7 +6024,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2370,33 +6055,33 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>DOGG</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HE3B1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>diversification_40act_check</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -2405,7 +6090,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2438,12 +6123,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2471,12 +6156,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2504,12 +6189,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2537,12 +6222,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2570,12 +6255,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2603,12 +6288,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DOGG</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>twelve_d3_sec_biz</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2636,12 +6321,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>commodities_check</t>
+          <t>twelve_d3_sec_biz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2669,12 +6354,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>diversification_40act_check</t>
+          <t>commodities_check</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2702,64 +6387,64 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HE3B2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>diversification_IRS_check</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>FDND</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>gics_compliance</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -2768,12 +6453,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2801,12 +6486,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2834,12 +6519,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2867,12 +6552,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2900,12 +6585,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2933,12 +6618,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FDND</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>twelve_d3_sec_biz</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2966,64 +6651,64 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HE3B3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>commodities_check</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>FGSI</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>diversification_40act_check</t>
-        </is>
-      </c>
-      <c r="C22" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -3032,12 +6717,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>diversification_IRS_check</t>
+          <t>diversification_40act_check</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3065,12 +6750,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>gics_compliance</t>
+          <t>diversification_IRS_check</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3098,12 +6783,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3131,12 +6816,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3164,12 +6849,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3197,12 +6882,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3230,12 +6915,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3263,12 +6948,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FGSI</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>twelve_d3_sec_biz</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3296,12 +6981,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>HE3B3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>commodities_check</t>
+          <t>twelve_d3_sec_biz</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3329,12 +7014,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>diversification_40act_check</t>
+          <t>commodities_check</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3362,12 +7047,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>diversification_IRS_check</t>
+          <t>diversification_40act_check</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3395,12 +7080,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>gics_compliance</t>
+          <t>diversification_IRS_check</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3428,12 +7113,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3461,12 +7146,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3494,12 +7179,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3527,12 +7212,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3560,12 +7245,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3593,12 +7278,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KNG</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>twelve_d3_sec_biz</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3626,64 +7311,64 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P20127</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>P21026</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>commodities_check</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>RDVI</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="inlineStr">
-        <is>
-          <t>diversification_40act_check</t>
-        </is>
-      </c>
-      <c r="C42" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D42" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="6" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -3692,12 +7377,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>diversification_IRS_check</t>
+          <t>diversification_40act_check</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3725,12 +7410,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>gics_compliance</t>
+          <t>diversification_IRS_check</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3758,12 +7443,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3791,12 +7476,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3824,12 +7509,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3857,12 +7542,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3890,12 +7575,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3923,12 +7608,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RDVI</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>twelve_d3_sec_biz</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3956,64 +7641,64 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P21026</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>P2726</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>commodities_check</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>SDVD</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="inlineStr">
-        <is>
-          <t>diversification_40act_check</t>
-        </is>
-      </c>
-      <c r="C52" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="D52" s="6" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="E52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
@@ -4022,12 +7707,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>diversification_IRS_check</t>
+          <t>diversification_40act_check</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4055,12 +7740,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gics_compliance</t>
+          <t>diversification_IRS_check</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4088,12 +7773,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4121,12 +7806,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4154,12 +7839,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4187,12 +7872,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4220,12 +7905,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4253,12 +7938,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SDVD</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>twelve_d3_sec_biz</t>
+          <t>twelve_d2_insurance_cos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4286,12 +7971,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P2726</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>commodities_check</t>
+          <t>twelve_d3_sec_biz</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4319,12 +8004,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>diversification_40act_check</t>
+          <t>commodities_check</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4352,12 +8037,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>diversification_IRS_check</t>
+          <t>diversification_40act_check</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4385,12 +8070,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>gics_compliance</t>
+          <t>diversification_IRS_check</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4418,12 +8103,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>max_15pct_illiquid_sai</t>
+          <t>gics_compliance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4451,12 +8136,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>prospectus_80pct_policy</t>
+          <t>max_15pct_illiquid_sai</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4484,12 +8169,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>real_estate_check</t>
+          <t>prospectus_80pct_policy</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4517,12 +8202,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>twelve_d1a_other_inv_cos</t>
+          <t>real_estate_check</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4550,12 +8235,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>twelve_d2_insurance_cos</t>
+          <t>twelve_d1a_other_inv_cos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4583,31 +8268,2044 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TDVI</t>
+          <t>P30128</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>P30128</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>twelve_d3_sec_biz</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>P31027</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>P3727</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="7" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B96" s="7" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C96" s="7" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="D96" s="7" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+      <c r="E96" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" s="7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>R21126</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TR2B1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TR2B2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>commodities_check</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>diversification_40act_check</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>diversification_IRS_check</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>gics_compliance</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>max_15pct_illiquid_sai</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>prospectus_80pct_policy</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>real_estate_check</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>twelve_d1a_other_inv_cos</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>twelve_d2_insurance_cos</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>TR2B3</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>twelve_d3_sec_biz</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
